--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>65.399996</v>
+        <v>67.91996</v>
       </c>
       <c r="H2">
-        <v>196.199988</v>
+        <v>203.75988</v>
       </c>
       <c r="I2">
-        <v>0.0234573392998008</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J2">
-        <v>0.02345733929980081</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N2">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O2">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P2">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q2">
-        <v>297.4565564069374</v>
+        <v>412.0436142157733</v>
       </c>
       <c r="R2">
-        <v>2677.109007662436</v>
+        <v>3708.39252794196</v>
       </c>
       <c r="S2">
-        <v>0.01880366758068968</v>
+        <v>0.02018729464209832</v>
       </c>
       <c r="T2">
-        <v>0.01880366758068969</v>
+        <v>0.02018729464209832</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.399996</v>
+        <v>67.91996</v>
       </c>
       <c r="H3">
-        <v>196.199988</v>
+        <v>203.75988</v>
       </c>
       <c r="I3">
-        <v>0.0234573392998008</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J3">
-        <v>0.02345733929980081</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.562536</v>
       </c>
       <c r="O3">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P3">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q3">
-        <v>55.86328138328533</v>
+        <v>58.01578087285333</v>
       </c>
       <c r="R3">
-        <v>502.769532449568</v>
+        <v>522.14202785568</v>
       </c>
       <c r="S3">
-        <v>0.003531388199293123</v>
+        <v>0.002842373044903915</v>
       </c>
       <c r="T3">
-        <v>0.003531388199293124</v>
+        <v>0.002842373044903917</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.399996</v>
+        <v>67.91996</v>
       </c>
       <c r="H4">
-        <v>196.199988</v>
+        <v>203.75988</v>
       </c>
       <c r="I4">
-        <v>0.0234573392998008</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J4">
-        <v>0.02345733929980081</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N4">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O4">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P4">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q4">
-        <v>16.54491278807867</v>
+        <v>12.39095526261333</v>
       </c>
       <c r="R4">
-        <v>148.904215092708</v>
+        <v>111.51859736352</v>
       </c>
       <c r="S4">
-        <v>0.001045883956892595</v>
+        <v>0.0006070713297171602</v>
       </c>
       <c r="T4">
-        <v>0.001045883956892595</v>
+        <v>0.0006070713297171604</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.399996</v>
+        <v>67.91996</v>
       </c>
       <c r="H5">
-        <v>196.199988</v>
+        <v>203.75988</v>
       </c>
       <c r="I5">
-        <v>0.0234573392998008</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J5">
-        <v>0.02345733929980081</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N5">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O5">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P5">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q5">
-        <v>1.208570126081333</v>
+        <v>2.42970072908</v>
       </c>
       <c r="R5">
-        <v>10.877131134732</v>
+        <v>21.86730656172</v>
       </c>
       <c r="S5">
-        <v>7.639956292540337E-05</v>
+        <v>0.0001190385746018957</v>
       </c>
       <c r="T5">
-        <v>7.639956292540341E-05</v>
+        <v>0.0001190385746018957</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>7870.55835</v>
       </c>
       <c r="I6">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J6">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N6">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O6">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P6">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q6">
-        <v>11932.46344026722</v>
+        <v>15915.85796198022</v>
       </c>
       <c r="R6">
-        <v>107392.170962405</v>
+        <v>143242.7216578219</v>
       </c>
       <c r="S6">
-        <v>0.7543087254817848</v>
+        <v>0.7797672456878026</v>
       </c>
       <c r="T6">
-        <v>0.754308725481785</v>
+        <v>0.7797672456878028</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>7870.55835</v>
       </c>
       <c r="I7">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J7">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>2.562536</v>
       </c>
       <c r="O7">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P7">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q7">
         <v>2240.954345775066</v>
@@ -886,10 +886,10 @@
         <v>20168.5891119756</v>
       </c>
       <c r="S7">
-        <v>0.1416615625839791</v>
+        <v>0.1097913038738707</v>
       </c>
       <c r="T7">
-        <v>0.1416615625839792</v>
+        <v>0.1097913038738708</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>7870.55835</v>
       </c>
       <c r="I8">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J8">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N8">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O8">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P8">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q8">
-        <v>663.6988249674833</v>
+        <v>478.6208963542667</v>
       </c>
       <c r="R8">
-        <v>5973.28942470735</v>
+        <v>4307.588067188401</v>
       </c>
       <c r="S8">
-        <v>0.04195561270906934</v>
+        <v>0.02344912218809217</v>
       </c>
       <c r="T8">
-        <v>0.04195561270906935</v>
+        <v>0.02344912218809218</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>7870.55835</v>
       </c>
       <c r="I9">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J9">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N9">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O9">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P9">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q9">
-        <v>48.48176492951666</v>
+        <v>93.85116128485001</v>
       </c>
       <c r="R9">
-        <v>436.33588436565</v>
+        <v>844.66045156365</v>
       </c>
       <c r="S9">
-        <v>0.003064766843507065</v>
+        <v>0.004598059477189759</v>
       </c>
       <c r="T9">
-        <v>0.003064766843507065</v>
+        <v>0.00459805947718976</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.220081</v>
+        <v>1.376679</v>
       </c>
       <c r="H10">
-        <v>0.6602429999999999</v>
+        <v>4.130037</v>
       </c>
       <c r="I10">
-        <v>7.89375383209421E-05</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J10">
-        <v>7.893753832094211E-05</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N10">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O10">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P10">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q10">
-        <v>1.000986856185667</v>
+        <v>8.351768622581</v>
       </c>
       <c r="R10">
-        <v>9.008881705671</v>
+        <v>75.16591760322899</v>
       </c>
       <c r="S10">
-        <v>6.327722045771632E-05</v>
+        <v>0.0004091790484062309</v>
       </c>
       <c r="T10">
-        <v>6.327722045771633E-05</v>
+        <v>0.000409179048406231</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.220081</v>
+        <v>1.376679</v>
       </c>
       <c r="H11">
-        <v>0.6602429999999999</v>
+        <v>4.130037</v>
       </c>
       <c r="I11">
-        <v>7.89375383209421E-05</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J11">
-        <v>7.893753832094211E-05</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>2.562536</v>
       </c>
       <c r="O11">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P11">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q11">
-        <v>0.1879884951386666</v>
+        <v>1.175929832648</v>
       </c>
       <c r="R11">
-        <v>1.691896456248</v>
+        <v>10.583368493832</v>
       </c>
       <c r="S11">
-        <v>1.188366198506541E-05</v>
+        <v>5.761244972884668E-05</v>
       </c>
       <c r="T11">
-        <v>1.188366198506541E-05</v>
+        <v>5.76124497288467E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.220081</v>
+        <v>1.376679</v>
       </c>
       <c r="H12">
-        <v>0.6602429999999999</v>
+        <v>4.130037</v>
       </c>
       <c r="I12">
-        <v>7.89375383209421E-05</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J12">
-        <v>7.893753832094211E-05</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N12">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O12">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P12">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q12">
-        <v>0.05567616474033332</v>
+        <v>0.251153974472</v>
       </c>
       <c r="R12">
-        <v>0.5010854826629999</v>
+        <v>2.260385770248</v>
       </c>
       <c r="S12">
-        <v>3.519559651301494E-06</v>
+        <v>1.230481218074466E-05</v>
       </c>
       <c r="T12">
-        <v>3.519559651301495E-06</v>
+        <v>1.230481218074467E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.220081</v>
+        <v>1.376679</v>
       </c>
       <c r="H13">
-        <v>0.6602429999999999</v>
+        <v>4.130037</v>
       </c>
       <c r="I13">
-        <v>7.89375383209421E-05</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J13">
-        <v>7.893753832094211E-05</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1240,28 +1240,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N13">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O13">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P13">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q13">
-        <v>0.004067023519666666</v>
+        <v>0.049247937867</v>
       </c>
       <c r="R13">
-        <v>0.03660321167699999</v>
+        <v>0.443231440803</v>
       </c>
       <c r="S13">
-        <v>2.570962268588777E-07</v>
+        <v>2.412809221977798E-06</v>
       </c>
       <c r="T13">
-        <v>2.570962268588778E-07</v>
+        <v>2.412809221977798E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>98.65010533333333</v>
+        <v>164.8447596666666</v>
       </c>
       <c r="H14">
-        <v>295.950316</v>
+        <v>494.534279</v>
       </c>
       <c r="I14">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555414</v>
       </c>
       <c r="J14">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555416</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N14">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O14">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P14">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q14">
-        <v>448.6868871006502</v>
+        <v>1000.048153114105</v>
       </c>
       <c r="R14">
-        <v>4038.181983905852</v>
+        <v>9000.433378026943</v>
       </c>
       <c r="S14">
-        <v>0.02836366821013295</v>
+        <v>0.0489954607393303</v>
       </c>
       <c r="T14">
-        <v>0.02836366821013295</v>
+        <v>0.04899546073933032</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>98.65010533333333</v>
+        <v>164.8447596666666</v>
       </c>
       <c r="H15">
-        <v>295.950316</v>
+        <v>494.534279</v>
       </c>
       <c r="I15">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555414</v>
       </c>
       <c r="J15">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555416</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>2.562536</v>
       </c>
       <c r="O15">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P15">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q15">
-        <v>84.26481544015287</v>
+        <v>140.8068770190604</v>
       </c>
       <c r="R15">
-        <v>758.3833389613759</v>
+        <v>1267.261893171544</v>
       </c>
       <c r="S15">
-        <v>0.005326786531197294</v>
+        <v>0.006898565627397269</v>
       </c>
       <c r="T15">
-        <v>0.005326786531197295</v>
+        <v>0.006898565627397273</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>98.65010533333333</v>
+        <v>164.8447596666666</v>
       </c>
       <c r="H16">
-        <v>295.950316</v>
+        <v>494.534279</v>
       </c>
       <c r="I16">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555414</v>
       </c>
       <c r="J16">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555416</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N16">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O16">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P16">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q16">
-        <v>24.95653653059511</v>
+        <v>30.07339878153511</v>
       </c>
       <c r="R16">
-        <v>224.608828775356</v>
+        <v>270.660589033816</v>
       </c>
       <c r="S16">
-        <v>0.001577623376519747</v>
+        <v>0.001473389081026388</v>
       </c>
       <c r="T16">
-        <v>0.001577623376519747</v>
+        <v>0.001473389081026388</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>98.65010533333333</v>
+        <v>164.8447596666666</v>
       </c>
       <c r="H17">
-        <v>295.950316</v>
+        <v>494.534279</v>
       </c>
       <c r="I17">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555414</v>
       </c>
       <c r="J17">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555416</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1488,28 +1488,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N17">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O17">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P17">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q17">
-        <v>1.823021063191555</v>
+        <v>5.896991587555666</v>
       </c>
       <c r="R17">
-        <v>16.407189568724</v>
+        <v>53.072924288001</v>
       </c>
       <c r="S17">
-        <v>0.0001152419784553453</v>
+        <v>0.0002889119078001822</v>
       </c>
       <c r="T17">
-        <v>0.0001152419784553453</v>
+        <v>0.0002889119078001823</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.250186</v>
+        <v>1.431418</v>
       </c>
       <c r="H18">
-        <v>0.7505580000000001</v>
+        <v>4.294254</v>
       </c>
       <c r="I18">
-        <v>8.973544723244271E-05</v>
+        <v>0.0005006547066313635</v>
       </c>
       <c r="J18">
-        <v>8.973544723244272E-05</v>
+        <v>0.0005006547066313636</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N18">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O18">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P18">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q18">
-        <v>1.137912394080667</v>
+        <v>8.683848550168667</v>
       </c>
       <c r="R18">
-        <v>10.241211546726</v>
+        <v>78.154636951518</v>
       </c>
       <c r="S18">
-        <v>7.193294594914698E-05</v>
+        <v>0.0004254486740275332</v>
       </c>
       <c r="T18">
-        <v>7.1932945949147E-05</v>
+        <v>0.0004254486740275333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.250186</v>
+        <v>1.431418</v>
       </c>
       <c r="H19">
-        <v>0.7505580000000001</v>
+        <v>4.294254</v>
       </c>
       <c r="I19">
-        <v>8.973544723244271E-05</v>
+        <v>0.0005006547066313635</v>
       </c>
       <c r="J19">
-        <v>8.973544723244272E-05</v>
+        <v>0.0005006547066313636</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>2.562536</v>
       </c>
       <c r="O19">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P19">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q19">
-        <v>0.2137035438986666</v>
+        <v>1.222686718682666</v>
       </c>
       <c r="R19">
-        <v>1.923331895088</v>
+        <v>11.004180468144</v>
       </c>
       <c r="S19">
-        <v>1.350923458815424E-05</v>
+        <v>5.990321459538953E-05</v>
       </c>
       <c r="T19">
-        <v>1.350923458815425E-05</v>
+        <v>5.990321459538956E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.250186</v>
+        <v>1.431418</v>
       </c>
       <c r="H20">
-        <v>0.7505580000000001</v>
+        <v>4.294254</v>
       </c>
       <c r="I20">
-        <v>8.973544723244271E-05</v>
+        <v>0.0005006547066313635</v>
       </c>
       <c r="J20">
-        <v>8.973544723244272E-05</v>
+        <v>0.0005006547066313636</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N20">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O20">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P20">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q20">
-        <v>0.06329213767533333</v>
+        <v>0.2611402656906667</v>
       </c>
       <c r="R20">
-        <v>0.569629239078</v>
+        <v>2.350262391216</v>
       </c>
       <c r="S20">
-        <v>4.001002135216197E-06</v>
+        <v>1.279407156071762E-05</v>
       </c>
       <c r="T20">
-        <v>4.001002135216198E-06</v>
+        <v>1.279407156071762E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.250186</v>
+        <v>1.431418</v>
       </c>
       <c r="H21">
-        <v>0.7505580000000001</v>
+        <v>4.294254</v>
       </c>
       <c r="I21">
-        <v>8.973544723244271E-05</v>
+        <v>0.0005006547066313635</v>
       </c>
       <c r="J21">
-        <v>8.973544723244272E-05</v>
+        <v>0.0005006547066313636</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,28 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N21">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O21">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P21">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q21">
-        <v>0.004623353884666666</v>
+        <v>0.051206116114</v>
       </c>
       <c r="R21">
-        <v>0.041610184962</v>
+        <v>0.4608550450260001</v>
       </c>
       <c r="S21">
-        <v>2.922645599252784E-07</v>
+        <v>2.508746447723119E-06</v>
       </c>
       <c r="T21">
-        <v>2.922645599252785E-07</v>
+        <v>2.50874644772312E-06</v>
       </c>
     </row>
   </sheetData>
